--- a/src/main/resources/excel/Ingles Basico A1 Presente Simple y vocabulario 2.xlsx
+++ b/src/main/resources/excel/Ingles Basico A1 Presente Simple y vocabulario 2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="nationality" sheetId="1" state="visible" r:id="rId2"/>
@@ -436,31 +436,31 @@
     <t xml:space="preserve">hola mi nombre es cesar</t>
   </si>
   <si>
-    <t xml:space="preserve">I’m a full stack developer</t>
+    <t xml:space="preserve">I'm a full stack developer</t>
   </si>
   <si>
     <t xml:space="preserve">Soy un desarrollador de pila completa</t>
   </si>
   <si>
-    <t xml:space="preserve">I’m 24 year old and I’m colombian and this is my friend elena</t>
+    <t xml:space="preserve">I'm 24 year old and I'm colombian and this is my friend elena</t>
   </si>
   <si>
     <t xml:space="preserve">tengo 24 años soy colombiana y esta es mi amiga elena</t>
   </si>
   <si>
-    <t xml:space="preserve">my name is elena, I’m 30 year old</t>
+    <t xml:space="preserve">my name is elena, I'm 30 year old</t>
   </si>
   <si>
     <t xml:space="preserve">mi nombre es elena tengo 30 años</t>
   </si>
   <si>
-    <t xml:space="preserve">I’m colombian american, I’m a teacher and this is my friend anna</t>
+    <t xml:space="preserve">I'm colombian american, I'm a teacher and this is my friend anna</t>
   </si>
   <si>
     <t xml:space="preserve">soy colombian american, soy maestra y esta es mi amiga anna</t>
   </si>
   <si>
-    <t xml:space="preserve">I’m anna, I’m a teacher, I’m 25 years old and I’m honduran</t>
+    <t xml:space="preserve">I'm anna, I'm a teacher, I'm 25 years old and I'm honduran</t>
   </si>
   <si>
     <t xml:space="preserve">Soy anna, soy maestra, tengo 25 años y soy hondureña.</t>
@@ -602,11 +602,11 @@
   </sheetPr>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="38.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="40.37"/>
@@ -754,7 +754,7 @@
       <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -842,7 +842,7 @@
       <selection pane="topLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -983,10 +983,10 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="51.82"/>
@@ -1131,10 +1131,10 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="36.94"/>
   </cols>
@@ -1277,11 +1277,11 @@
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="68.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="52.96"/>
@@ -1373,7 +1373,7 @@
       <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="62.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="57.21"/>

--- a/src/main/resources/excel/Ingles Basico A1 Presente Simple y vocabulario 2.xlsx
+++ b/src/main/resources/excel/Ingles Basico A1 Presente Simple y vocabulario 2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="nationality" sheetId="1" state="visible" r:id="rId2"/>
@@ -472,7 +472,7 @@
     <t xml:space="preserve">estos son mis amigos</t>
   </si>
   <si>
-    <t xml:space="preserve">hi my name is johb</t>
+    <t xml:space="preserve">hi my name is edwin</t>
   </si>
   <si>
     <t xml:space="preserve">Hola mi nombre es John</t>
@@ -606,7 +606,7 @@
       <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="38.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="40.37"/>
@@ -754,7 +754,7 @@
       <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -842,7 +842,7 @@
       <selection pane="topLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -986,7 +986,7 @@
       <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="51.82"/>
@@ -1134,7 +1134,7 @@
       <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="36.94"/>
   </cols>
@@ -1277,11 +1277,11 @@
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="68.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="52.96"/>
@@ -1369,11 +1369,11 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="62.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="57.21"/>

--- a/src/main/resources/excel/Ingles Basico A1 Presente Simple y vocabulario 2.xlsx
+++ b/src/main/resources/excel/Ingles Basico A1 Presente Simple y vocabulario 2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="nationality" sheetId="1" state="visible" r:id="rId2"/>
@@ -466,7 +466,7 @@
     <t xml:space="preserve">Soy anna, soy maestra, tengo 25 años y soy hondureña.</t>
   </si>
   <si>
-    <t xml:space="preserve">these are my frinds</t>
+    <t xml:space="preserve">these are my friends</t>
   </si>
   <si>
     <t xml:space="preserve">estos son mis amigos</t>
@@ -606,7 +606,7 @@
       <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="38.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="40.37"/>
@@ -754,7 +754,7 @@
       <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -842,7 +842,7 @@
       <selection pane="topLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -986,7 +986,7 @@
       <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="51.82"/>
@@ -1134,7 +1134,7 @@
       <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="36.94"/>
   </cols>
@@ -1277,11 +1277,11 @@
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="68.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="52.96"/>
@@ -1369,11 +1369,11 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="62.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="57.21"/>
